--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833108.1429850805</v>
+        <v>830547.9588252152</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>147.3894837187667</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>381.4859536980651</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>81.21182540108268</v>
       </c>
       <c r="W4" t="n">
-        <v>216.9110703165856</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.157261199727826</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>254.7218743057155</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>17.4277581536947</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>180.6261618334212</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>266.4388874644138</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>93.89254046638185</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>163.9656095773493</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329753</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114111</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>194.8614410373519</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035295</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146347</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1585,13 +1585,13 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>51.38727972879775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337184</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>298.949442580124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>7.018581172449863</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>47.55018352240461</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.6121309665478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.831980181938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.83266606353019</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503995</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272852</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>53.08838020946168</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>219.2450387532283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>20.43112068613308</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846225</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.36981422366932</v>
+        <v>66.37524671012072</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.69108391904159</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833818</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>181.6715686078768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>72.78315874934748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>124.0270735093605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.0741154159445</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.805867331309</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>955.8433503908975</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>597.5776517841471</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>211.7893991859028</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395431</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>770.9577966591559</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>770.9577966591559</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.9577966591559</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395395</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="C5" t="n">
-        <v>673.7528084549829</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="D5" t="n">
-        <v>315.4871098482324</v>
+        <v>447.5189834864568</v>
       </c>
       <c r="E5" t="n">
-        <v>315.4871098482324</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>308.5416090990289</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656474</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395395</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9870984135519</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>304.7087196946019</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260735</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
         <v>1867.77024428415</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
         <v>198.1367340659135</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1618.842323959654</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1618.842323959654</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1618.842323959654</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1364.157835753767</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1074.740665716806</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>846.7511148187889</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1126.761759316041</v>
+        <v>1067.685314683799</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974333</v>
+        <v>1067.685314683799</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974333</v>
+        <v>709.4196160770487</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4805,13 +4805,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
         <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1126.761759316041</v>
+        <v>1067.685314683799</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>551.6025748766947</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081664</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236615</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4960,16 +4960,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1274.19554437845</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>985.0772068822877</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>730.3927186764008</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469175</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>704.5155104420305</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687098</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856279</v>
+        <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234587</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455657</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971437</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971437</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3425.95628354987</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3073.187628279756</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2699.721870018676</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.582538042864</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792126</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376497</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843912</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282801</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.081882663713</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358063</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234705</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410774</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888909</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014271</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014271</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564317</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004605</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1514.291631844204</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.874461807243</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>1224.874461807243</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>1004.081882663713</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5267,7 +5267,7 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,10 +5276,10 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5291,7 +5291,7 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5312,16 +5312,16 @@
         <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126175</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5361,10 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>561.9183350635727</v>
       </c>
       <c r="C16" t="n">
-        <v>929.449101106124</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937882</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E16" t="n">
-        <v>631.419368111395</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856733</v>
@@ -5461,25 +5461,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2380.345286003699</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.269072318426</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.584584112539</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.167414075578</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.177863177561</v>
+        <v>964.3593790373425</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.385284034031</v>
+        <v>743.5667998938125</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C19" t="n">
-        <v>594.817955904858</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>114.9565346495161</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5780,7 +5780,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876685</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876685</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>363.7369613277382</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098233</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.7543264856238</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856238</v>
+        <v>493.2161050975139</v>
       </c>
       <c r="D31" t="n">
-        <v>550.6376870732879</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908949</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="F31" t="n">
-        <v>402.724593490895</v>
+        <v>343.0994656851782</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057749</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2383.963271233119</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2383.963271233119</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2164.36180625606</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1875.286579600258</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.184921357411</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1103.195370459394</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.4027913158635</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888039</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,13 +7333,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2321.683211348583</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2102.081746371524</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1813.006519715722</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1558.322031509835</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,7 +7825,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>240.4465442417437</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130767</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.454437538929909</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>129.7511347056854</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>27.39221874047956</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803228</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238041</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>132.8908174327831</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726066</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034043</v>
+        <v>89.71507747034038</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>200.7503635950303</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>50.291526137289</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.228239926178</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.9318109403572</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067401</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011778</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7828069546822</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564186939</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>114.1584408891662</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>32.89260457059973</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124947</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.005432486452364</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>70.46607471595124</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237473</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>179.3544845744805</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.99921249228404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222875</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51053793615029</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>909603.0722149401</v>
+        <v>909603.0722149407</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>989992.103871724</v>
+        <v>989992.1038717238</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353934</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>995463.9682353935</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353934</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353933</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787486</v>
-      </c>
       <c r="D2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
         <v>421406.8801099662</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="H2" t="n">
-        <v>423751.9648372531</v>
-      </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.964837253</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
@@ -26344,16 +26344,16 @@
         <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="N2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="N2" t="n">
-        <v>423751.9648372533</v>
-      </c>
       <c r="O2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357053</v>
+        <v>325187.1190357062</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051392</v>
+        <v>166521.3471051384</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456799</v>
+        <v>84929.59434456818</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848945</v>
+        <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7408.247504413624</v>
@@ -26430,28 +26430,28 @@
         <v>7500.835840494316</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.36846171967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719677</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719678</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.36846171968</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214702</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-909756.4903837598</v>
+        <v>-909756.4903837601</v>
       </c>
       <c r="C6" t="n">
-        <v>204995.2931921596</v>
+        <v>204995.2931921599</v>
       </c>
       <c r="D6" t="n">
         <v>204995.2931921596</v>
       </c>
       <c r="E6" t="n">
-        <v>-31734.65073092107</v>
+        <v>-31944.61497476673</v>
       </c>
       <c r="F6" t="n">
-        <v>147242.5686504943</v>
+        <v>147196.6636549294</v>
       </c>
       <c r="G6" t="n">
-        <v>303954.8303160476</v>
+        <v>303920.0923906118</v>
       </c>
       <c r="H6" t="n">
-        <v>315122.0665516263</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="I6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261908</v>
       </c>
       <c r="J6" t="n">
-        <v>147516.888741644</v>
+        <v>147482.1508162082</v>
       </c>
       <c r="K6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="L6" t="n">
-        <v>315122.0665516265</v>
+        <v>315087.3286261908</v>
       </c>
       <c r="M6" t="n">
-        <v>230192.4722070584</v>
+        <v>230157.7342816223</v>
       </c>
       <c r="N6" t="n">
-        <v>271339.6599931371</v>
+        <v>271304.9220677014</v>
       </c>
       <c r="O6" t="n">
-        <v>312098.7685744017</v>
+        <v>312064.030648966</v>
       </c>
       <c r="P6" t="n">
-        <v>315122.0665516261</v>
+        <v>315087.3286261907</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086469</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770157</v>
+        <v>278.1053753770165</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086081</v>
+        <v>340.8034957086089</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086081</v>
+        <v>340.8034957086089</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086081</v>
+        <v>340.8034957086089</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4865620229447</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>4.751984957988498</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="W4" t="n">
-        <v>69.61192802000545</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>374.773108872534</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>156.8258284672384</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>177.2347022080428</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.6467299375864</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>115.491482607848</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.72293255183051</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>56.78308641986268</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.142339906814372e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.095124156970996e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-5.655920176650397e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.384897052766708e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485645</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508987</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307176</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726051</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216965</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857418</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.509834189838</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.05348002944</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461513</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188515</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.60730963196942</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059647</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783039</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202551</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735524</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845324</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147134</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431804</v>
+        <v>179.5642660017245</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205466</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071843</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697582</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691785</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619739</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263706</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973091</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570602</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929608</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826896</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,13 +32081,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>302.8877650506832</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33497,28 +33497,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>631.6436438346176</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>380.8714430074307</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>69.4346584298473</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>316.3386309491703</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35261,10 +35261,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.45443753892966</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040313</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276245</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517092</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584691</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077533</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062435</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156576</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116372</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458961</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693678237</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313801</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298736</v>
+        <v>36.96802155728008</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062164</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701824</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882112</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190453</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998341</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>164.3333852708091</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811963</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>71.39556506237767</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
